--- a/results/3. Linear_Regression_with_devset/Data Set_LinearRegression_with_Devset.xlsx
+++ b/results/3. Linear_Regression_with_devset/Data Set_LinearRegression_with_Devset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeonuKim\Desktop\ML project\Regression_Analysis_of_PECVD_SiNx\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeonuKim\Desktop\ML project\Regression_Analysis_of_PECVD_SiNx\results\3. Linear_Regression_with_devset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6064E720-4B88-4884-860F-5AA57C7598A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA3D10C-1C19-4C12-B43C-BD29641D65E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shuffled_Rand_removed" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>RF Freq (MHz)</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Cost1</t>
   </si>
   <si>
-    <t>Cost2</t>
-  </si>
-  <si>
-    <t>Cost3</t>
-  </si>
-  <si>
     <t>Test3</t>
   </si>
   <si>
@@ -131,6 +125,15 @@
   </si>
   <si>
     <t>Training &amp; Devset</t>
+  </si>
+  <si>
+    <t>Test4 (3000 epochs, learning rate =0.02)</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Test4 (10000 epochs,)</t>
   </si>
 </sst>
 </file>
@@ -818,133 +821,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>106.17164018376147</c:v>
+                  <c:v>129.57768111821531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.256006654480416</c:v>
+                  <c:v>78.794745966971163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7973938854132925</c:v>
+                  <c:v>6.8201712754857695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.467174982685634</c:v>
+                  <c:v>22.141599329566297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.625955838893532</c:v>
+                  <c:v>49.76518897195141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.885797492116197</c:v>
+                  <c:v>-5.5862102312599973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.982571568589833</c:v>
+                  <c:v>78.99338593752762</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.298072761375948</c:v>
+                  <c:v>10.08377959754592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.33095994625526</c:v>
+                  <c:v>119.73240191896572</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.106171350541814</c:v>
+                  <c:v>27.539149979307503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.128390453718744</c:v>
+                  <c:v>18.044548113367426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.95756289082496</c:v>
+                  <c:v>85.461366802520246</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.656881722881167</c:v>
+                  <c:v>98.303212783332114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.499549825964252</c:v>
+                  <c:v>104.3081972833574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.877174536412411</c:v>
+                  <c:v>28.363503632900475</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.167347521226631</c:v>
+                  <c:v>72.519747548404084</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.13382120258322</c:v>
+                  <c:v>117.07864343173799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.045730295134163</c:v>
+                  <c:v>119.86327375607974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.696048398983208</c:v>
+                  <c:v>26.135027983002935</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.164516036984715</c:v>
+                  <c:v>67.959797304941461</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.965023839094997</c:v>
+                  <c:v>33.879650173335925</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94.1092243012111</c:v>
+                  <c:v>113.13357454291295</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72.792476839568678</c:v>
+                  <c:v>80.723316603907037</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96.211017083329921</c:v>
+                  <c:v>106.42885478291657</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8698499131448401</c:v>
+                  <c:v>14.045964985595887</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>84.338157465312065</c:v>
+                  <c:v>93.396520443192571</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>82.891006174257129</c:v>
+                  <c:v>91.565991367207175</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.9608379026474907</c:v>
+                  <c:v>14.141141917544893</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>120.12420924567806</c:v>
+                  <c:v>132.67735138914674</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18.756260995735026</c:v>
+                  <c:v>26.177665069369048</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118.15898409779101</c:v>
+                  <c:v>130.27815461791971</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56.379003561794981</c:v>
+                  <c:v>66.256641575723947</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.704758221309881</c:v>
+                  <c:v>52.56492992361278</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32.891775146807021</c:v>
+                  <c:v>40.475707305005166</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47.679876391852673</c:v>
+                  <c:v>46.738546860400071</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.4039399458541126</c:v>
+                  <c:v>14.694106991073376</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59.476106646285388</c:v>
+                  <c:v>65.864449447475607</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5.0635328645658078</c:v>
+                  <c:v>-0.191629639419439</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44.591700764828154</c:v>
+                  <c:v>53.318219329030043</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82.745509565448785</c:v>
+                  <c:v>97.641973355746757</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15.852461098174452</c:v>
+                  <c:v>21.184314303509375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59.628341541097164</c:v>
+                  <c:v>59.85387018446135</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.509909648215661</c:v>
+                  <c:v>1.8931862417108789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,15 +3329,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3186E75-438A-4A95-88D4-48D169AD77DA}">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -3368,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3400,8 +3404,8 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <f>(C2-460.27)/180.3*C$48+(D2-900)/48.9*D$48+(E2-98.7)/23.7*E$48+(F2-66.2)/9.5*F$48+(G2-1526.9)/331.3*G$48+H$48</f>
-        <v>106.17164018376147</v>
+        <f t="shared" ref="J2:J44" si="0">(C2-460.27)/180.3*C$48+(D2-900)/48.9*D$48+(E2-98.7)/23.7*E$48+(F2-66.2)/9.5*F$48+(G2-1526.9)/331.3*G$48+H$48</f>
+        <v>129.57768111821531</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3433,8 +3437,8 @@
         <v>22</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:K44" si="0">(C3-460.27)/180.3*C$48+(D3-900)/48.9*D$48+(E3-98.7)/23.7*E$48+(F3-66.2)/9.5*F$48+(G3-1526.9)/331.3*G$48+H$48</f>
-        <v>71.256006654480416</v>
+        <f t="shared" si="0"/>
+        <v>78.794745966971163</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3467,7 +3471,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1.7973938854132925</v>
+        <v>6.8201712754857695</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3500,7 +3504,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>15.467174982685634</v>
+        <v>22.141599329566297</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3533,7 +3537,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>47.625955838893532</v>
+        <v>49.76518897195141</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3566,7 +3570,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>19.885797492116197</v>
+        <v>-5.5862102312599973</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3599,7 +3603,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>67.982571568589833</v>
+        <v>78.99338593752762</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3632,7 +3636,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>19.298072761375948</v>
+        <v>10.08377959754592</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3665,7 +3669,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>108.33095994625526</v>
+        <v>119.73240191896572</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3698,7 +3702,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>21.106171350541814</v>
+        <v>27.539149979307503</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3731,7 +3735,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>12.128390453718744</v>
+        <v>18.044548113367426</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3764,7 +3768,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>82.95756289082496</v>
+        <v>85.461366802520246</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3797,7 +3801,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>94.656881722881167</v>
+        <v>98.303212783332114</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3830,7 +3834,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>94.499549825964252</v>
+        <v>104.3081972833574</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3863,7 +3867,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>22.877174536412411</v>
+        <v>28.363503632900475</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3896,7 +3900,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>71.167347521226631</v>
+        <v>72.519747548404084</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3929,7 +3933,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>106.13382120258322</v>
+        <v>117.07864343173799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3962,7 +3966,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>99.045730295134163</v>
+        <v>119.86327375607974</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3995,7 +3999,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>18.696048398983208</v>
+        <v>26.135027983002935</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4028,7 +4032,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>61.164516036984715</v>
+        <v>67.959797304941461</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4061,7 +4065,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>35.965023839094997</v>
+        <v>33.879650173335925</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4094,7 +4098,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>94.1092243012111</v>
+        <v>113.13357454291295</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4127,7 +4131,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>72.792476839568678</v>
+        <v>80.723316603907037</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4160,7 +4164,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>96.211017083329921</v>
+        <v>106.42885478291657</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4193,7 +4197,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>8.8698499131448401</v>
+        <v>14.045964985595887</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4226,7 +4230,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>84.338157465312065</v>
+        <v>93.396520443192571</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4259,7 +4263,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>82.891006174257129</v>
+        <v>91.565991367207175</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4292,7 +4296,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>8.9608379026474907</v>
+        <v>14.141141917544893</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4325,7 +4329,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>120.12420924567806</v>
+        <v>132.67735138914674</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4358,7 +4362,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>18.756260995735026</v>
+        <v>26.177665069369048</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4391,7 +4395,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>118.15898409779101</v>
+        <v>130.27815461791971</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4424,7 +4428,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>56.379003561794981</v>
+        <v>66.256641575723947</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -4457,7 +4461,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>17.704758221309881</v>
+        <v>52.56492992361278</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -4490,7 +4494,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>32.891775146807021</v>
+        <v>40.475707305005166</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4522,8 +4526,8 @@
         <v>23</v>
       </c>
       <c r="J36">
-        <f>(C36-460.27)/180.3*C$48+(D36-900)/48.9*D$48+(E36-98.7)/23.7*E$48+(F36-66.2)/9.5*F$48+(G36-1526.9)/331.3*G$48+H$48</f>
-        <v>47.679876391852673</v>
+        <f t="shared" si="0"/>
+        <v>46.738546860400071</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -4556,7 +4560,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>9.4039399458541126</v>
+        <v>14.694106991073376</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -4589,7 +4593,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>59.476106646285388</v>
+        <v>65.864449447475607</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -4622,7 +4626,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>-5.0635328645658078</v>
+        <v>-0.191629639419439</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4655,7 +4659,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>44.591700764828154</v>
+        <v>53.318219329030043</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4688,7 +4692,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>82.745509565448785</v>
+        <v>97.641973355746757</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4721,7 +4725,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>15.852461098174452</v>
+        <v>21.184314303509375</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4754,7 +4758,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>59.628341541097164</v>
+        <v>59.85387018446135</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>1</v>
@@ -4805,7 +4809,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>12.509909648215661</v>
+        <v>1.8931862417108789</v>
       </c>
       <c r="M44" t="s">
         <v>19</v>
@@ -4889,10 +4893,10 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4900,22 +4904,22 @@
         <v>21</v>
       </c>
       <c r="C48">
-        <v>-21.162545999999999</v>
+        <v>-23.229229</v>
       </c>
       <c r="D48">
-        <v>3.4108010000000002</v>
+        <v>3.4858056999999998</v>
       </c>
       <c r="E48">
-        <v>-27.562950000000001</v>
+        <v>-37.575232999999997</v>
       </c>
       <c r="F48">
-        <v>-0.37667640000000002</v>
+        <v>10.042992999999999</v>
       </c>
       <c r="G48">
-        <v>3.0973872999999998</v>
+        <v>3.8008305999999998</v>
       </c>
       <c r="H48">
-        <v>53.925593999999997</v>
+        <v>60.852524000000003</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
@@ -4967,7 +4971,7 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>-22.691196000000001</v>
@@ -4996,9 +5000,51 @@
       <c r="N51"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>-23.229229</v>
+      </c>
+      <c r="D52">
+        <v>3.4858056999999998</v>
+      </c>
+      <c r="E52">
+        <v>-37.575232999999997</v>
+      </c>
+      <c r="F52">
+        <v>10.042992999999999</v>
+      </c>
+      <c r="G52">
+        <v>3.8008305999999998</v>
+      </c>
+      <c r="H52">
+        <v>60.852524000000003</v>
+      </c>
       <c r="N52"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53">
+        <v>-25.984385</v>
+      </c>
+      <c r="D53">
+        <v>4.8306513000000004</v>
+      </c>
+      <c r="E53">
+        <v>-33.296967000000002</v>
+      </c>
+      <c r="F53">
+        <v>8.9565439999999992</v>
+      </c>
+      <c r="G53">
+        <v>4.7866280000000003</v>
+      </c>
+      <c r="H53">
+        <v>58.787556000000002</v>
+      </c>
       <c r="N53"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -5018,10 +5064,7 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N57"/>
     </row>
@@ -5032,6 +5075,9 @@
       <c r="C58">
         <v>34.441566000000002</v>
       </c>
+      <c r="D58">
+        <v>7.4124946999999999</v>
+      </c>
       <c r="N58"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
@@ -5041,6 +5087,9 @@
       <c r="C59">
         <v>32.9131</v>
       </c>
+      <c r="D59">
+        <v>6.8717126999999998</v>
+      </c>
       <c r="N59"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -5050,6 +5099,9 @@
       <c r="C60">
         <v>31.378325</v>
       </c>
+      <c r="D60">
+        <v>6.3779070000000004</v>
+      </c>
       <c r="N60"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -5059,6 +5111,9 @@
       <c r="C61">
         <v>29.851759999999999</v>
       </c>
+      <c r="D61">
+        <v>5.9273879999999997</v>
+      </c>
       <c r="N61"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -5068,6 +5123,9 @@
       <c r="C62">
         <v>28.345379999999999</v>
       </c>
+      <c r="D62">
+        <v>5.5167555999999998</v>
+      </c>
       <c r="N62"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -5076,6 +5134,9 @@
       </c>
       <c r="C63" s="5">
         <v>26.869007</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5.1427506999999997</v>
       </c>
       <c r="N63"/>
     </row>
@@ -5086,6 +5147,9 @@
       <c r="C64">
         <v>25.430579999999999</v>
       </c>
+      <c r="D64">
+        <v>4.8023749999999996</v>
+      </c>
       <c r="N64"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
@@ -5095,6 +5159,9 @@
       <c r="C65">
         <v>24.036272</v>
       </c>
+      <c r="D65">
+        <v>4.4928308000000001</v>
+      </c>
       <c r="N65"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
@@ -5104,6 +5171,9 @@
       <c r="C66">
         <v>22.690804</v>
       </c>
+      <c r="D66">
+        <v>4.2115970000000003</v>
+      </c>
       <c r="N66"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
@@ -5113,6 +5183,9 @@
       <c r="C67">
         <v>21.397539999999999</v>
       </c>
+      <c r="D67">
+        <v>3.9562428000000001</v>
+      </c>
       <c r="N67"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -5122,6 +5195,9 @@
       <c r="C68">
         <v>20.15888</v>
       </c>
+      <c r="D68">
+        <v>3.7245819999999998</v>
+      </c>
       <c r="N68"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
@@ -5131,6 +5207,9 @@
       <c r="C69">
         <v>18.976286000000002</v>
       </c>
+      <c r="D69">
+        <v>3.5146134</v>
+      </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70">
@@ -5139,6 +5218,9 @@
       <c r="C70">
         <v>17.850248000000001</v>
       </c>
+      <c r="D70">
+        <v>3.3244889</v>
+      </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71">
@@ -5147,6 +5229,9 @@
       <c r="C71">
         <v>16.780944999999999</v>
       </c>
+      <c r="D71">
+        <v>3.1525009000000002</v>
+      </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72">
@@ -5155,6 +5240,9 @@
       <c r="C72">
         <v>15.767751000000001</v>
       </c>
+      <c r="D72">
+        <v>2.9971413999999998</v>
+      </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73">
@@ -5163,6 +5251,9 @@
       <c r="C73">
         <v>14.809649</v>
       </c>
+      <c r="D73">
+        <v>2.8569735999999999</v>
+      </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74">
@@ -5171,6 +5262,9 @@
       <c r="C74">
         <v>13.905239</v>
       </c>
+      <c r="D74">
+        <v>2.7306743</v>
+      </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75">
@@ -5178,6 +5272,9 @@
       </c>
       <c r="C75">
         <v>13.053024000000001</v>
+      </c>
+      <c r="D75">
+        <v>2.6171199999999999</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -5187,6 +5284,9 @@
       <c r="C76">
         <v>12.251105000000001</v>
       </c>
+      <c r="D76">
+        <v>2.5152836000000001</v>
+      </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77">
@@ -5195,6 +5295,9 @@
       <c r="C77">
         <v>11.497563</v>
       </c>
+      <c r="D77">
+        <v>2.4240767999999999</v>
+      </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78">
@@ -5203,6 +5306,12 @@
       <c r="C78">
         <v>10.790380000000001</v>
       </c>
+      <c r="D78">
+        <v>2.3427023999999999</v>
+      </c>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79">
@@ -5211,6 +5320,9 @@
       <c r="C79">
         <v>10.127418499999999</v>
       </c>
+      <c r="D79">
+        <v>2.2703479999999998</v>
+      </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80">
@@ -5219,6 +5331,9 @@
       <c r="C80">
         <v>9.5065100000000005</v>
       </c>
+      <c r="D80">
+        <v>2.2063440000000001</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
@@ -5227,6 +5342,9 @@
       <c r="C81">
         <v>8.9254899999999999</v>
       </c>
+      <c r="D81">
+        <v>2.1500192</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
@@ -5235,6 +5353,9 @@
       <c r="C82">
         <v>8.3822310000000009</v>
       </c>
+      <c r="D82">
+        <v>2.1007216</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
@@ -5243,6 +5364,9 @@
       <c r="C83">
         <v>7.8745555999999999</v>
       </c>
+      <c r="D83">
+        <v>2.0579553000000002</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
@@ -5251,6 +5375,9 @@
       <c r="C84">
         <v>7.4005400000000003</v>
       </c>
+      <c r="D84">
+        <v>2.0212462000000002</v>
+      </c>
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -5260,6 +5387,9 @@
       <c r="C85">
         <v>6.9581146</v>
       </c>
+      <c r="D85">
+        <v>1.9901413999999999</v>
+      </c>
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -5269,6 +5399,9 @@
       <c r="C86">
         <v>6.5454024999999998</v>
       </c>
+      <c r="D86">
+        <v>1.9642173999999999</v>
+      </c>
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -5278,6 +5411,9 @@
       <c r="C87">
         <v>6.1605686999999998</v>
       </c>
+      <c r="D87">
+        <v>1.9431400000000001</v>
+      </c>
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -5287,6 +5423,9 @@
       <c r="C88">
         <v>5.8018193</v>
       </c>
+      <c r="D88">
+        <v>1.9265661000000001</v>
+      </c>
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -5296,6 +5435,9 @@
       <c r="C89">
         <v>5.4674586999999999</v>
       </c>
+      <c r="D89">
+        <v>1.9142897999999999</v>
+      </c>
       <c r="G89" s="11"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -5305,6 +5447,9 @@
       <c r="C90">
         <v>5.1559977999999997</v>
       </c>
+      <c r="D90">
+        <v>1.905886</v>
+      </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
@@ -5313,6 +5458,9 @@
       <c r="C91">
         <v>4.8658200000000003</v>
       </c>
+      <c r="D91">
+        <v>1.9012287999999999</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
@@ -5321,6 +5469,9 @@
       <c r="C92">
         <v>4.5955550000000001</v>
       </c>
+      <c r="D92">
+        <v>1.8999914</v>
+      </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
@@ -5329,6 +5480,9 @@
       <c r="C93">
         <v>4.3438993000000004</v>
       </c>
+      <c r="D93">
+        <v>1.9019934999999999</v>
+      </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
@@ -5337,6 +5491,9 @@
       <c r="C94">
         <v>4.1095199999999998</v>
       </c>
+      <c r="D94">
+        <v>1.9071127999999999</v>
+      </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
@@ -5345,6 +5502,9 @@
       <c r="C95">
         <v>3.8912469999999999</v>
       </c>
+      <c r="D95">
+        <v>1.9151309999999999</v>
+      </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
@@ -5353,13 +5513,819 @@
       <c r="C96">
         <v>3.6879811</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>1.9259051</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2000</v>
       </c>
       <c r="C97">
         <v>3.4986663</v>
+      </c>
+      <c r="D97">
+        <v>1.9392073999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>1.9549597999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>1.9730403000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>1.9932851</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>2.0156228999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>2.0399060000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>2.0660725000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>2.0940568000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2.1237143999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>2.1549244000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>2.1876956999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>2.2218360000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>2.2573159999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>2.2941474999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>2.3321803000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>2.3713666999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>2.4115899999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>2.4528433999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>2.4950092000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>2.5380259000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>2.5820131000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>2.6268156</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>2.6722858</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>2.7183970999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>2.7650614</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>2.8123339999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>2.8602216</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>2.9084110000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>2.957071</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>3.0063043</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>3.0558044999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>3.1055581999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>3.1556304000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>3.2057110999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>3.2561703</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>3.3066878000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>3.3574964999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>3.4082471999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>3.4592301999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>3.5101325999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>3.560927</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>3.611672</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>3.6622138</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>3.7128703999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>3.7632642000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>3.813504</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>3.863629</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>3.9137268000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>3.9636688000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>4.0135364999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>4.0627513000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>4.1120725</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>4.1607979999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>4.2093486999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>4.2575282999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>4.3053679999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>4.3530917000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>4.4003076999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>4.4470352999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>4.4932217999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>4.5391909999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>4.5846505000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>4.6299666999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>4.6749134000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>4.7190370000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>4.7629799999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>4.8067007000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>4.8498409999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>4.8922943999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>4.9344929999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>4.9761343</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>5.0173965000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>5.0580106000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>5.0983744</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>5.138153</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>5.1773633999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>5.2160444000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>5.2545866999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>5.2926460000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>5.3303694999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>5.3675503999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>5.4042409999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>5.4402929999999996</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>5.4759310000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>5.5109810000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>5.5454530000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>5.5797020000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>5.6136664999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>5.6471634000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>5.680091</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>5.7123794999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>5.7441709999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>5.7753119999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>5.8060309999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>5.8365179999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>5.8664449999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>5.8960990000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>5.9253710000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>5.9539749999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>5.9822154000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>6.0099429999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>6.037204</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>6.0636830000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>6.0898566000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>6.1156515999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>6.1414622999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>6.1670965999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>6.1923250000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>6.2170005000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>6.2411574999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>6.2649664999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>6.2885685000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>6.3115290000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>6.3341710000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>6.3564844000000003</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>6.3784090000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>6.4000690000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>6.4214219999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>6.4423219999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>6.4629630000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>6.4834423000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>6.5036754999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>6.5236159999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>6.5431476000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>6.5621175999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>6.5810484999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>6.5995255000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>6.6178689999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>6.6356390000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>6.6529163999999996</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>6.6699710000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>6.68682</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>6.7033734000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>6.7196800000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>6.7359239999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>6.7518909999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>6.7675247000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>6.7827333999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>6.7978040000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>6.8125780000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>6.8270545</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>6.841094</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>6.8549439999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>6.8684989999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>6.8817854000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>6.8951419999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>6.9080370000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>6.9204800000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>6.9329239999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>6.9456540000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>6.9579250000000004</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>6.9697522999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>6.9815702000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>6.9935184000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>7.0051236000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>7.0166143999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>7.0278945000000004</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>7.039059</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>7.0501579999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>7.061083</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>7.0717134000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5446,7 +6412,7 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I44" ca="1" si="0">RAND()</f>
-        <v>0.19782784401487041</v>
+        <v>0.12717271818831666</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5476,7 +6442,7 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39807472192314408</v>
+        <v>0.13154668465314656</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5506,7 +6472,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87496423704307946</v>
+        <v>0.64487336816803065</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5536,7 +6502,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99260334755380886</v>
+        <v>0.57229756886777883</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,7 +6532,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55336123864857678</v>
+        <v>0.71450149887999947</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5596,7 +6562,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71712907693436911</v>
+        <v>0.93635422028638338</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5626,7 +6592,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56834349083230906</v>
+        <v>0.90590492036675918</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5656,7 +6622,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15580598807444546</v>
+        <v>0.92652263945414748</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5686,7 +6652,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65100729088906284</v>
+        <v>0.42710422184198527</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5716,7 +6682,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4754240466628249</v>
+        <v>9.7210631457472552E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5746,7 +6712,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52788997701889007</v>
+        <v>0.57513867614301384</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5776,7 +6742,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89652371489952221</v>
+        <v>0.15962421969574259</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5806,7 +6772,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64560701848719793</v>
+        <v>0.75154283682656708</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5836,7 +6802,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15925244836744101</v>
+        <v>5.4468237291319221E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5866,7 +6832,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67720772674435215</v>
+        <v>0.47976114101318601</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5896,7 +6862,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97600361696572657</v>
+        <v>0.68290011501892067</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5926,7 +6892,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11453782483891617</v>
+        <v>7.5899895568881659E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5956,7 +6922,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70934175085220497</v>
+        <v>0.77164159076455252</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5986,7 +6952,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54700862481539658</v>
+        <v>0.96282011742021267</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -6016,7 +6982,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97805249649452208</v>
+        <v>0.4108026015812154</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6046,7 +7012,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89022340862267568</v>
+        <v>9.091608771746984E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6076,7 +7042,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63686721401442625</v>
+        <v>0.96617288791839129</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6106,7 +7072,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9194054890971106E-2</v>
+        <v>0.76524373029996573</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6136,7 +7102,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48429261084106812</v>
+        <v>0.4149444219222499</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6166,7 +7132,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23111958451934067</v>
+        <v>0.43151178171782878</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6196,7 +7162,7 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.550797673830557</v>
+        <v>0.72074385290832832</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6226,7 +7192,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92399201177715706</v>
+        <v>0.73684329612579114</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -6256,7 +7222,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53437889583373455</v>
+        <v>8.8376869454915186E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -6286,7 +7252,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17946969560963655</v>
+        <v>0.24050579820921203</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -6316,7 +7282,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2610025198144292E-2</v>
+        <v>0.5508149468013348</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -6346,7 +7312,7 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37972704840594007</v>
+        <v>0.25891872174580577</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6376,7 +7342,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30012500272184983</v>
+        <v>0.52824413976248774</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6406,7 +7372,7 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51145260826540972</v>
+        <v>0.91585257862531899</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -6436,7 +7402,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70037469061095126</v>
+        <v>0.18519692540080779</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -6466,7 +7432,7 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53076519634923558</v>
+        <v>0.34911484646919833</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6496,7 +7462,7 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97806510747741793</v>
+        <v>0.43484764032026013</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6526,7 +7492,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88492601610907318</v>
+        <v>0.47717795849556455</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -6556,7 +7522,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96090007122840404</v>
+        <v>0.19901542600906397</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6586,7 +7552,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68495734854349544</v>
+        <v>0.24226475286463267</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -6616,7 +7582,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3804532732541307</v>
+        <v>3.8809614018713301E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -6646,7 +7612,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60454620180764451</v>
+        <v>0.55699403615547727</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -6676,7 +7642,7 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10007173346253517</v>
+        <v>0.12245969779190757</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6706,7 +7672,7 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82042376746312828</v>
+        <v>0.65755696297527644</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
